--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -734,10 +734,10 @@
         <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
         <v>4.5</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -992,13 +992,13 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
         <v>2.75</v>
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Y4" t="n">
         <v>1.5</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
         <v>6.25</v>
@@ -1134,16 +1134,16 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
         <v>3.25</v>
@@ -1162,7 +1162,7 @@
         <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1177,7 +1177,7 @@
         <v>1.62</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1189,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,40 +692,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
         <v>2.4</v>
@@ -743,7 +743,7 @@
         <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -761,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>29</v>
@@ -779,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -791,7 +791,7 @@
         <v>401</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -800,13 +800,13 @@
         <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -992,13 +992,13 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>2.75</v>
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Y4" t="n">
         <v>1.5</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1137,13 +1137,13 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
         <v>3.25</v>
@@ -1162,7 +1162,7 @@
         <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -710,22 +710,22 @@
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
         <v>2.4</v>
@@ -743,7 +743,7 @@
         <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -1137,10 +1137,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -894,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>7.2</v>
@@ -918,7 +918,7 @@
         <v>12.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
         <v>300</v>
@@ -939,7 +939,7 @@
         <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1036,16 +1036,16 @@
         <v>1.73</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1054,10 +1054,10 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1069,10 +1069,10 @@
         <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.1</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1151,10 +1151,10 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1171,37 +1171,37 @@
         <v>2.63</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>67</v>
@@ -1210,19 +1210,19 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L2" t="n">
         <v>3.2</v>
@@ -731,7 +731,7 @@
         <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>3.8</v>
@@ -974,34 +974,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -1030,22 +1030,22 @@
         <v>2.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1054,13 +1054,13 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1069,22 +1069,22 @@
         <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>41</v>
       </c>
-      <c r="AR4" t="n">
-        <v>34</v>
-      </c>
       <c r="AS4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,46 +692,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
         <v>3.8</v>
@@ -740,10 +740,10 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -758,7 +758,7 @@
         <v>1.75</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -794,7 +794,7 @@
         <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>10</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1006,10 +1006,10 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1024,16 +1024,16 @@
         <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1140,7 +1140,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -1140,7 +1140,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1024,10 +1024,10 @@
         <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA4" t="n">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>1.73</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1057,10 +1057,10 @@
         <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1069,19 +1069,19 @@
         <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS4" t="n">
         <v>41</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.3</v>
@@ -1134,7 +1134,7 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1143,10 +1143,10 @@
         <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1171,10 +1171,10 @@
         <v>2.63</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC5" t="n">
         <v>6</v>
@@ -1192,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -698,10 +698,10 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
@@ -710,10 +710,10 @@
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -752,13 +752,13 @@
         <v>2.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -794,7 +794,7 @@
         <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>10</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1006,10 +1006,10 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1057,7 +1057,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1069,10 +1069,10 @@
         <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1137,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1151,18 +1151,18 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1177,16 +1177,16 @@
         <v>1.67</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1195,13 +1195,13 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>67</v>
@@ -1213,16 +1213,16 @@
         <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -746,10 +746,10 @@
         <v>1.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA2" t="n">
         <v>1.95</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1006,10 +1006,10 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1024,10 +1024,10 @@
         <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA4" t="n">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>1.73</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1069,19 +1069,19 @@
         <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>34</v>
       </c>
       <c r="AS4" t="n">
         <v>41</v>
@@ -1137,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -746,10 +746,10 @@
         <v>1.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" t="n">
         <v>1.95</v>
@@ -758,7 +758,7 @@
         <v>1.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -776,13 +776,13 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -791,7 +791,7 @@
         <v>401</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -992,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1119,19 +1119,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1143,26 +1143,26 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1174,16 +1174,16 @@
         <v>2.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1192,16 +1192,16 @@
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>67</v>
@@ -1210,7 +1210,7 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -752,10 +752,10 @@
         <v>2.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -776,13 +776,13 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -791,10 +791,10 @@
         <v>401</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>10</v>
@@ -980,7 +980,7 @@
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -995,7 +995,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
@@ -1174,7 +1174,7 @@
         <v>2.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC5" t="n">
         <v>6</v>
@@ -1198,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
@@ -1207,7 +1207,7 @@
         <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -710,10 +710,10 @@
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -1143,10 +1143,10 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1154,15 +1154,15 @@
         <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1171,10 +1171,10 @@
         <v>2.63</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC5" t="n">
         <v>6</v>
@@ -1198,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
@@ -1222,7 +1222,7 @@
         <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -755,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -995,7 +995,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1024,10 +1024,10 @@
         <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA4" t="n">
         <v>2</v>
@@ -1039,7 +1039,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
@@ -1128,7 +1128,7 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1137,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1186,7 +1186,7 @@
         <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1198,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
@@ -1219,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,46 +692,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
         <v>3.8</v>
@@ -740,10 +740,10 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -752,13 +752,13 @@
         <v>2.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -791,10 +791,10 @@
         <v>401</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>10</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>2.25</v>
@@ -1140,13 +1140,13 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1195,10 +1195,10 @@
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
@@ -1210,13 +1210,13 @@
         <v>1250</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
@@ -710,10 +710,10 @@
         <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -722,16 +722,16 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>3.8</v>
@@ -740,22 +740,22 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
@@ -776,22 +776,22 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -803,10 +803,10 @@
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -841,105 +841,105 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.8</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="X3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK3" t="n">
         <v>12.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AO3" t="n">
         <v>12.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1154,15 +1154,15 @@
         <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1177,16 +1177,16 @@
         <v>1.73</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1198,7 +1198,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
@@ -1207,16 +1207,16 @@
         <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1225,7 +1225,7 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,40 +692,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
         <v>2.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.98</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -746,7 +746,7 @@
         <v>1.17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z2" t="n">
         <v>2.25</v>
@@ -758,10 +758,10 @@
         <v>1.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -797,10 +797,10 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>23</v>
@@ -1207,7 +1207,7 @@
         <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -716,22 +716,22 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
         <v>3.8</v>
@@ -740,13 +740,13 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
         <v>2.25</v>
@@ -758,16 +758,16 @@
         <v>1.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
         <v>29</v>
@@ -791,7 +791,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -803,7 +803,7 @@
         <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-20.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -722,16 +722,16 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>3.8</v>
@@ -740,10 +740,10 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" t="n">
         <v>1.57</v>
@@ -758,16 +758,16 @@
         <v>1.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>29</v>
@@ -791,19 +791,19 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
         <v>41</v>
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -869,74 +869,74 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="X3" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AK3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
         <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AS3" t="n">
         <v>22</v>
